--- a/data/GlobalGPP_Sum.xlsx
+++ b/data/GlobalGPP_Sum.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jian107/PNNL/GlobalC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B6234DA-C4B7-3D40-8044-3E4DB1E498FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040AEC5B-A000-F040-8E8B-F4741552A607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="560" windowWidth="28040" windowHeight="20000"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalGPP_Sum" sheetId="1" r:id="rId1"/>
+    <sheet name="MPIBGC" sheetId="2" r:id="rId2"/>
+    <sheet name="SVR" sheetId="3" r:id="rId3"/>
+    <sheet name="FLUXCOM" sheetId="4" r:id="rId4"/>
+    <sheet name="MODIS C6" sheetId="5" r:id="rId5"/>
+    <sheet name="PR" sheetId="6" r:id="rId6"/>
+    <sheet name="GIMMS" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_0raw" localSheetId="3">FLUXCOM!$A$2:$C$33</definedName>
+    <definedName name="_0raw" localSheetId="6">GIMMS!$A$2:$C$31</definedName>
+    <definedName name="_0raw" localSheetId="4">'MODIS C6'!$A$2:$C$17</definedName>
+    <definedName name="_0raw" localSheetId="5">PR!$A$2:$C$31</definedName>
+    <definedName name="_0raw" localSheetId="2">SVR!$A$2:$C$16</definedName>
+    <definedName name="_0raw_1" localSheetId="3">FLUXCOM!$E$2:$E$33</definedName>
+    <definedName name="_0raw_1" localSheetId="1">MPIBGC!$B$2:$C$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,8 +42,69 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="0raw" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="0raw1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="0raw2" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="0raw3" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="0raw4" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="0raw5" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="0raw6" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\0Figures\0raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
   <si>
     <t>Year</t>
   </si>
@@ -283,13 +359,121 @@
   </si>
   <si>
     <t>Table 1</t>
+  </si>
+  <si>
+    <t>2001-2011</t>
+  </si>
+  <si>
+    <t>(Jiang et al., 2016)</t>
+  </si>
+  <si>
+    <t>BESS</t>
+  </si>
+  <si>
+    <t>2003-2015</t>
+  </si>
+  <si>
+    <t>(Badgley et al., 2019)</t>
+  </si>
+  <si>
+    <t>NIRv</t>
+  </si>
+  <si>
+    <t>(Joiner et al., 2018)</t>
+  </si>
+  <si>
+    <t>SIF</t>
+  </si>
+  <si>
+    <t>MPI-BGC</t>
+  </si>
+  <si>
+    <t>Ryu(2019)RSE</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>MODIS C6</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>VPM</t>
+  </si>
+  <si>
+    <t>GIMMS</t>
+  </si>
+  <si>
+    <t>(Kondo et al., 2015)</t>
+  </si>
+  <si>
+    <t>(Jung et al., 2017)</t>
+  </si>
+  <si>
+    <t>(Running 2004)</t>
+  </si>
+  <si>
+    <t>(Keenan et al., 2016)</t>
+  </si>
+  <si>
+    <t>(Zhang et al. 2017)</t>
+  </si>
+  <si>
+    <t>(Smith et al., 2016)</t>
+  </si>
+  <si>
+    <t>2000-2016</t>
+  </si>
+  <si>
+    <t>2000-2014</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>Notes3</t>
+  </si>
+  <si>
+    <t>FLUXCOM ANN</t>
+  </si>
+  <si>
+    <t>FLUXCOM MARS</t>
+  </si>
+  <si>
+    <t>FLUXCOM RF</t>
+  </si>
+  <si>
+    <t>1982-2013</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>2001-2016</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>1982-2011</t>
+  </si>
+  <si>
+    <t>Ryu(2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +610,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -772,8 +963,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -830,6 +1029,1920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29667111611048619"/>
+                  <c:y val="5.7197602365819972E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIBGC!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1982.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIBGC!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>117.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120.04</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>121.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-065A-1B47-85D8-72EBA92E5170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="304783744"/>
+        <c:axId val="304781952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="304783744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="304781952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="304781952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="304783744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SVR!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1999.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SVR!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>144.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0875-E143-B30E-DE224122B77C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394406144"/>
+        <c:axId val="394404608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394406144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394404608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394404608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394406144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FLUXCOM!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1982.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002.03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007.94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010.98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FLUXCOM!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120.29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120.02</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>119.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D090-B14F-B94B-7FB8AD22511F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146306176"/>
+        <c:axId val="395451776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146306176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="395451776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395451776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146306176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MODIS C6'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2000.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MODIS C6'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>97.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8916-6A4B-B66A-647E7F81F76A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395246976"/>
+        <c:axId val="395245440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395246976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="395245440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395245440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="395246976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PR!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1981.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005.96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PR!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>130.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>134.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>140.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9C0-7344-8653-AB4768A0300C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148434944"/>
+        <c:axId val="148433152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148434944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148433152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="148433152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148434944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GIMMS!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1981.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005.97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008.97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GIMMS!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>104.72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>106.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7980-604F-8866-346DBA4EDE8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148412288"/>
+        <c:axId val="148410752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148412288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148410752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="148410752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148412288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw" connectionId="6" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0raw" connectionId="7" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,24 +3241,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1163,12 +3277,18 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1975</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1975</v>
       </c>
       <c r="C2">
@@ -1178,11 +3298,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -1192,11 +3312,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1991</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1991</v>
       </c>
       <c r="C4">
@@ -1209,11 +3329,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1995</v>
       </c>
       <c r="C5">
@@ -1223,11 +3343,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1979</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -1237,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1251,11 +3371,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1976</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1265,7 +3385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1279,7 +3399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1293,11 +3413,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1994</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11">
@@ -1310,11 +3430,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1985</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12">
@@ -1333,11 +3453,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1998</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13">
@@ -1347,11 +3467,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1990</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14">
@@ -1365,11 +3485,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1996</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15">
@@ -1382,11 +3502,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1983</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16">
@@ -1400,7 +3520,7 @@
       <c r="A17">
         <v>2002</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17">
@@ -1418,7 +3538,7 @@
       <c r="A18">
         <v>1992</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18">
@@ -1438,7 +3558,7 @@
       <c r="A19">
         <v>1950</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19">
@@ -1455,7 +3575,7 @@
       <c r="A20">
         <v>2000</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20">
@@ -1472,7 +3592,7 @@
       <c r="A21">
         <v>2001</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21">
@@ -1489,7 +3609,7 @@
       <c r="A22">
         <v>2002</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22">
@@ -1506,7 +3626,7 @@
       <c r="A23">
         <v>2003</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C23">
@@ -1523,7 +3643,7 @@
       <c r="A24">
         <v>2000</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24">
@@ -1540,7 +3660,7 @@
       <c r="A25">
         <v>2001</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25">
@@ -1557,7 +3677,7 @@
       <c r="A26">
         <v>2002</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26">
@@ -1574,7 +3694,7 @@
       <c r="A27">
         <v>2003</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C27">
@@ -1591,7 +3711,7 @@
       <c r="A28">
         <v>2000</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C28">
@@ -1608,7 +3728,7 @@
       <c r="A29">
         <v>2001</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C29">
@@ -1625,7 +3745,7 @@
       <c r="A30">
         <v>2000</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C30">
@@ -1642,7 +3762,7 @@
       <c r="A31">
         <v>2002</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31">
@@ -1656,7 +3776,7 @@
       <c r="A32">
         <v>2001</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2001</v>
       </c>
       <c r="C32">
@@ -1674,7 +3794,7 @@
       <c r="A33">
         <v>1993</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C33">
@@ -1688,7 +3808,7 @@
       <c r="A34">
         <v>2000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>2000</v>
       </c>
       <c r="C34">
@@ -1702,7 +3822,7 @@
       <c r="A35">
         <v>2000</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C35">
@@ -1716,7 +3836,7 @@
       <c r="A36">
         <v>2001</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C36">
@@ -1730,7 +3850,7 @@
       <c r="A37">
         <v>2002</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37">
@@ -1744,7 +3864,7 @@
       <c r="A38">
         <v>2003</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38">
@@ -1758,7 +3878,7 @@
       <c r="A39">
         <v>1990</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C39">
@@ -1772,7 +3892,7 @@
       <c r="A40">
         <v>1990</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C40">
@@ -1789,7 +3909,7 @@
       <c r="A41">
         <v>1990</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C41">
@@ -1803,7 +3923,7 @@
       <c r="A42">
         <v>1994</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C42">
@@ -1820,7 +3940,7 @@
       <c r="A43">
         <v>2001</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>2001</v>
       </c>
       <c r="C43">
@@ -1834,7 +3954,7 @@
       <c r="A44">
         <v>2006</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44">
@@ -1848,7 +3968,7 @@
       <c r="A45">
         <v>2002</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C45">
@@ -1865,7 +3985,7 @@
       <c r="A46">
         <v>1993</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C46">
@@ -1879,7 +3999,7 @@
       <c r="A47">
         <v>2002</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C47">
@@ -1893,7 +4013,7 @@
       <c r="A48">
         <v>2000</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C48">
@@ -1910,7 +4030,7 @@
       <c r="A49">
         <v>2002</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C49">
@@ -1927,6 +4047,9 @@
       <c r="A50">
         <v>2000</v>
       </c>
+      <c r="B50" s="2">
+        <v>2000</v>
+      </c>
       <c r="C50">
         <v>134</v>
       </c>
@@ -1941,7 +4064,7 @@
       <c r="A51">
         <v>2000</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>2000</v>
       </c>
       <c r="C51">
@@ -1958,7 +4081,7 @@
       <c r="A52">
         <v>2010</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>2010</v>
       </c>
       <c r="C52">
@@ -1975,7 +4098,7 @@
       <c r="A53">
         <v>2004</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C53">
@@ -1995,7 +4118,7 @@
       <c r="A54">
         <v>2004</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C54">
@@ -2015,7 +4138,7 @@
       <c r="A55">
         <v>2004</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C55">
@@ -2035,7 +4158,7 @@
       <c r="A56">
         <v>2004</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C56">
@@ -2055,7 +4178,7 @@
       <c r="A57">
         <v>2004</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C57">
@@ -2075,7 +4198,7 @@
       <c r="A58">
         <v>2004</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58">
@@ -2095,7 +4218,7 @@
       <c r="A59">
         <v>2004</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C59">
@@ -2115,7 +4238,7 @@
       <c r="A60">
         <v>2004</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C60">
@@ -2135,7 +4258,7 @@
       <c r="A61">
         <v>2004</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61">
@@ -2155,7 +4278,7 @@
       <c r="A62">
         <v>2004</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62">
@@ -2175,7 +4298,7 @@
       <c r="A63">
         <v>2005</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C63">
@@ -2198,7 +4321,7 @@
       <c r="A64">
         <v>2005</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C64">
@@ -2214,11 +4337,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2005</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C65">
@@ -2231,11 +4354,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1995</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C66">
@@ -2246,6 +4369,289 @@
       </c>
       <c r="G66" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="1">
+        <v>147</v>
+      </c>
+      <c r="D67" s="1">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="1">
+        <v>140</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f>AVERAGE(2000,2014)</f>
+        <v>2007</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="1">
+        <v>144</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f>AVERAGE(1982,2012)</f>
+        <v>1997</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="1">
+        <v>109</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f>AVERAGE(1982,2012)</f>
+        <v>1997</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="1">
+        <v>120</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="1">
+        <v>123.79</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="1">
+        <v>100.21</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="1">
+        <v>133.87</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f>AVERAGE(2000,2016)</f>
+        <v>2008</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="1">
+        <f>AVERAGE(121.6,122.46,122.76,122.93,124.74,123.41,126.02,124.7,123.82,125.38,125.9,126.79,125.66,126.81,128.35,129.42,127.7)</f>
+        <v>125.2029411764706</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="1">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1">
+        <v>122</v>
+      </c>
+      <c r="D78" s="1">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2253,4 +4659,2204 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>82.02</v>
+      </c>
+      <c r="B2" s="4">
+        <f>1900+A2</f>
+        <v>1982.02</v>
+      </c>
+      <c r="C2">
+        <v>117.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>82.96</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B31" si="0">1900+A3</f>
+        <v>1982.96</v>
+      </c>
+      <c r="C3">
+        <v>117.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>83.99</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>1983.99</v>
+      </c>
+      <c r="C4">
+        <v>116.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>85.02</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>1985.02</v>
+      </c>
+      <c r="C5">
+        <v>118.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="C6">
+        <v>119.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>86.99</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1986.99</v>
+      </c>
+      <c r="C7">
+        <v>118.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>87.97</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>1987.97</v>
+      </c>
+      <c r="C8">
+        <v>120.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>89</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="C9">
+        <v>119.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>89.94</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>1989.94</v>
+      </c>
+      <c r="C10">
+        <v>121.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>90.97</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>1990.97</v>
+      </c>
+      <c r="C11">
+        <v>120.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>91.96</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>1991.96</v>
+      </c>
+      <c r="C12">
+        <v>119.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>93.03</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>1993.03</v>
+      </c>
+      <c r="C13">
+        <v>119.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>94.01</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>1994.01</v>
+      </c>
+      <c r="C14">
+        <v>119.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>94.96</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>1994.96</v>
+      </c>
+      <c r="C15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>95.98</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>1995.98</v>
+      </c>
+      <c r="C16">
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>97.01</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>1997.01</v>
+      </c>
+      <c r="C17">
+        <v>121.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>98</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>99.03</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>1999.03</v>
+      </c>
+      <c r="C19">
+        <v>119.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>100.01</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.01</v>
+      </c>
+      <c r="C20">
+        <v>119.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>101.04</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.04</v>
+      </c>
+      <c r="C21">
+        <v>118.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>101.98</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.98</v>
+      </c>
+      <c r="C22">
+        <v>117.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>102.97</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.97</v>
+      </c>
+      <c r="C23">
+        <v>117.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>103.95</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.95</v>
+      </c>
+      <c r="C24">
+        <v>120.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>104.94</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.94</v>
+      </c>
+      <c r="C25">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>105.92</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.92</v>
+      </c>
+      <c r="C26">
+        <v>121.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>106.99</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>2006.99</v>
+      </c>
+      <c r="C27">
+        <v>120.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>108.02</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>2008.02</v>
+      </c>
+      <c r="C28">
+        <v>120.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>108.92</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>2008.92</v>
+      </c>
+      <c r="C29">
+        <v>120.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>109.95</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>2009.95</v>
+      </c>
+      <c r="C30">
+        <v>121.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>110.98</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>2010.98</v>
+      </c>
+      <c r="C31">
+        <v>121.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>99.92</v>
+      </c>
+      <c r="B2">
+        <f>1900+A2</f>
+        <v>1999.92</v>
+      </c>
+      <c r="C2">
+        <v>144.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100.95</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0">1900+A3</f>
+        <v>2000.95</v>
+      </c>
+      <c r="C3">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>101.93</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2001.93</v>
+      </c>
+      <c r="C4">
+        <v>142.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>102.96</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2002.96</v>
+      </c>
+      <c r="C5">
+        <v>143.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>103.99</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2003.99</v>
+      </c>
+      <c r="C6">
+        <v>144.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>104.98</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2004.98</v>
+      </c>
+      <c r="C7">
+        <v>144.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>105.96</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2005.96</v>
+      </c>
+      <c r="C8">
+        <v>144.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>106.99</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2006.99</v>
+      </c>
+      <c r="C9">
+        <v>145.16999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107.93</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2007.93</v>
+      </c>
+      <c r="C10">
+        <v>144.55000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>108.96</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2008.96</v>
+      </c>
+      <c r="C11">
+        <v>144.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>109.95</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2009.95</v>
+      </c>
+      <c r="C12">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110.93</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2010.93</v>
+      </c>
+      <c r="C13">
+        <v>145.52000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>111.92</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2011.92</v>
+      </c>
+      <c r="C14">
+        <v>145.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>112.9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2012.9</v>
+      </c>
+      <c r="C15">
+        <v>143.63999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>113.97</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2013.97</v>
+      </c>
+      <c r="C16">
+        <v>143.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>82.02</v>
+      </c>
+      <c r="B2">
+        <f>A2+1900</f>
+        <v>1982.02</v>
+      </c>
+      <c r="C2">
+        <v>108.9</v>
+      </c>
+      <c r="D2">
+        <v>120.6</v>
+      </c>
+      <c r="E2">
+        <v>123.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B33" si="0">A3+1900</f>
+        <v>1983</v>
+      </c>
+      <c r="C3">
+        <v>108.65</v>
+      </c>
+      <c r="D3">
+        <v>120.09</v>
+      </c>
+      <c r="E3">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>84.03</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1984.03</v>
+      </c>
+      <c r="C4">
+        <v>109.38</v>
+      </c>
+      <c r="D4">
+        <v>120.83</v>
+      </c>
+      <c r="E4">
+        <v>123.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>84.98</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1984.98</v>
+      </c>
+      <c r="C5">
+        <v>109</v>
+      </c>
+      <c r="D5">
+        <v>120.81</v>
+      </c>
+      <c r="E5">
+        <v>123.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>85.96</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1985.96</v>
+      </c>
+      <c r="C6">
+        <v>109.12</v>
+      </c>
+      <c r="D6">
+        <v>120.44</v>
+      </c>
+      <c r="E6">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>87.03</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1987.03</v>
+      </c>
+      <c r="C7">
+        <v>108.24</v>
+      </c>
+      <c r="D7">
+        <v>119.56</v>
+      </c>
+      <c r="E7">
+        <v>123.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>88.06</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1988.06</v>
+      </c>
+      <c r="C8">
+        <v>109.23</v>
+      </c>
+      <c r="D8">
+        <v>120.06</v>
+      </c>
+      <c r="E8">
+        <v>123.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>89.05</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1989.05</v>
+      </c>
+      <c r="C9">
+        <v>109.35</v>
+      </c>
+      <c r="D9">
+        <v>121.29</v>
+      </c>
+      <c r="E9">
+        <v>123.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>89.99</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1989.99</v>
+      </c>
+      <c r="C10">
+        <v>109.22</v>
+      </c>
+      <c r="D10">
+        <v>121.04</v>
+      </c>
+      <c r="E10">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90.93</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1990.93</v>
+      </c>
+      <c r="C11">
+        <v>108.58</v>
+      </c>
+      <c r="D11">
+        <v>120.41</v>
+      </c>
+      <c r="E11">
+        <v>123.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="C12">
+        <v>108.46</v>
+      </c>
+      <c r="D12">
+        <v>120.15</v>
+      </c>
+      <c r="E12">
+        <v>123.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>92.94</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1992.94</v>
+      </c>
+      <c r="C13">
+        <v>108.95</v>
+      </c>
+      <c r="D13">
+        <v>120.89</v>
+      </c>
+      <c r="E13">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>93.97</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1993.97</v>
+      </c>
+      <c r="C14">
+        <v>108.56</v>
+      </c>
+      <c r="D14">
+        <v>120.26</v>
+      </c>
+      <c r="E14">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="C15">
+        <v>108.56</v>
+      </c>
+      <c r="D15">
+        <v>120.38</v>
+      </c>
+      <c r="E15">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>96.03</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1996.03</v>
+      </c>
+      <c r="C16">
+        <v>108.68</v>
+      </c>
+      <c r="D16">
+        <v>120.25</v>
+      </c>
+      <c r="E16">
+        <v>123.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>96.93</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1996.93</v>
+      </c>
+      <c r="C17">
+        <v>109.29</v>
+      </c>
+      <c r="D17">
+        <v>120.35</v>
+      </c>
+      <c r="E17">
+        <v>124.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>97.96</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1997.96</v>
+      </c>
+      <c r="C18">
+        <v>109.16</v>
+      </c>
+      <c r="D18">
+        <v>119.74</v>
+      </c>
+      <c r="E18">
+        <v>124.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98.98</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1998.98</v>
+      </c>
+      <c r="C19">
+        <v>109.28</v>
+      </c>
+      <c r="D19">
+        <v>120.6</v>
+      </c>
+      <c r="E19">
+        <v>123.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>99.97</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1999.97</v>
+      </c>
+      <c r="C20">
+        <v>110.02</v>
+      </c>
+      <c r="D20">
+        <v>120.58</v>
+      </c>
+      <c r="E20">
+        <v>124.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100.96</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2000.96</v>
+      </c>
+      <c r="C21">
+        <v>109.01</v>
+      </c>
+      <c r="D21">
+        <v>120.09</v>
+      </c>
+      <c r="E21">
+        <v>123.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>102.03</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2002.03</v>
+      </c>
+      <c r="C22">
+        <v>108.13</v>
+      </c>
+      <c r="D22">
+        <v>119.83</v>
+      </c>
+      <c r="E22">
+        <v>123.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>102.97</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2002.97</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>119.95</v>
+      </c>
+      <c r="E23">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="C24">
+        <v>109.24</v>
+      </c>
+      <c r="D24">
+        <v>120.56</v>
+      </c>
+      <c r="E24">
+        <v>124.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>104.9</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2004.9</v>
+      </c>
+      <c r="C25">
+        <v>108.6</v>
+      </c>
+      <c r="D25">
+        <v>120.06</v>
+      </c>
+      <c r="E25">
+        <v>123.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>106.01</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2006.01</v>
+      </c>
+      <c r="C26">
+        <v>109.6</v>
+      </c>
+      <c r="D26">
+        <v>120.42</v>
+      </c>
+      <c r="E26">
+        <v>124.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="C27">
+        <v>109.09</v>
+      </c>
+      <c r="D27">
+        <v>120.29</v>
+      </c>
+      <c r="E27">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>107.94</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2007.94</v>
+      </c>
+      <c r="C28">
+        <v>108.96</v>
+      </c>
+      <c r="D28">
+        <v>120.53</v>
+      </c>
+      <c r="E28">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>108.92</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2008.92</v>
+      </c>
+      <c r="C29">
+        <v>108.96</v>
+      </c>
+      <c r="D29">
+        <v>120.03</v>
+      </c>
+      <c r="E29">
+        <v>123.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>109.95</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2009.95</v>
+      </c>
+      <c r="C30">
+        <v>109.94</v>
+      </c>
+      <c r="D30">
+        <v>120.02</v>
+      </c>
+      <c r="E30">
+        <v>124.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>110.98</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2010.98</v>
+      </c>
+      <c r="C31">
+        <v>109.56</v>
+      </c>
+      <c r="D31">
+        <v>120.39</v>
+      </c>
+      <c r="E31">
+        <v>124.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>111.88</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2011.88</v>
+      </c>
+      <c r="C32">
+        <v>108.69</v>
+      </c>
+      <c r="D32">
+        <v>119.63</v>
+      </c>
+      <c r="E32">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>112.99</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2012.99</v>
+      </c>
+      <c r="C33">
+        <v>109.17</v>
+      </c>
+      <c r="D33">
+        <v>120.5</v>
+      </c>
+      <c r="E33">
+        <v>123.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100.91</v>
+      </c>
+      <c r="B2">
+        <f>1900+A2</f>
+        <v>2000.91</v>
+      </c>
+      <c r="C2">
+        <v>97.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>101.99</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B17" si="0">1900+A3</f>
+        <v>2001.99</v>
+      </c>
+      <c r="C3">
+        <v>97.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>102.97</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2002.97</v>
+      </c>
+      <c r="C4">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="C5">
+        <v>100.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>104.94</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2004.94</v>
+      </c>
+      <c r="C6">
+        <v>99.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>105.93</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2005.93</v>
+      </c>
+      <c r="C7">
+        <v>99.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>106.91</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2006.91</v>
+      </c>
+      <c r="C8">
+        <v>99.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>107.94</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2007.94</v>
+      </c>
+      <c r="C9">
+        <v>98.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>108.93</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2008.93</v>
+      </c>
+      <c r="C10">
+        <v>100.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>109.95</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2009.95</v>
+      </c>
+      <c r="C11">
+        <v>101.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>110.94</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2010.94</v>
+      </c>
+      <c r="C12">
+        <v>101.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>111.97</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2011.97</v>
+      </c>
+      <c r="C13">
+        <v>99.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>112.91</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2012.91</v>
+      </c>
+      <c r="C14">
+        <v>101.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>113.98</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2013.98</v>
+      </c>
+      <c r="C15">
+        <v>102.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>114.97</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2014.97</v>
+      </c>
+      <c r="C16">
+        <v>104.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>115.95</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2015.95</v>
+      </c>
+      <c r="C17">
+        <v>102.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>81.97</v>
+      </c>
+      <c r="B2">
+        <f>1900+A2</f>
+        <v>1981.97</v>
+      </c>
+      <c r="C2">
+        <v>130.30000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>83.04</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">1900+A3</f>
+        <v>1983.04</v>
+      </c>
+      <c r="C3">
+        <v>128.55000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>83.9</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1983.9</v>
+      </c>
+      <c r="C4">
+        <v>130.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>84.97</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1984.97</v>
+      </c>
+      <c r="C5">
+        <v>129.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="C6">
+        <v>131.13999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>86.94</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1986.94</v>
+      </c>
+      <c r="C7">
+        <v>129.88999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>88.01</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1988.01</v>
+      </c>
+      <c r="C8">
+        <v>130.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>89.04</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1989.04</v>
+      </c>
+      <c r="C9">
+        <v>133.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>89.98</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1989.98</v>
+      </c>
+      <c r="C10">
+        <v>135.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90.97</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1990.97</v>
+      </c>
+      <c r="C11">
+        <v>131.47999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>91.95</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1991.95</v>
+      </c>
+      <c r="C12">
+        <v>131.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>93.03</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1993.03</v>
+      </c>
+      <c r="C13">
+        <v>130.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>94.05</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1994.05</v>
+      </c>
+      <c r="C14">
+        <v>130.58000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="C15">
+        <v>134.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>95.98</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1995.98</v>
+      </c>
+      <c r="C16">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>96.88</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1996.88</v>
+      </c>
+      <c r="C17">
+        <v>136.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>97.95</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1997.95</v>
+      </c>
+      <c r="C18">
+        <v>135.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98.94</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1998.94</v>
+      </c>
+      <c r="C19">
+        <v>134.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>100.01</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2000.01</v>
+      </c>
+      <c r="C20">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100.95</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2000.95</v>
+      </c>
+      <c r="C21">
+        <v>136.38999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>102.02</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2002.02</v>
+      </c>
+      <c r="C22">
+        <v>134.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>102.96</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2002.96</v>
+      </c>
+      <c r="C23">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>103.99</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2003.99</v>
+      </c>
+      <c r="C24">
+        <v>135.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>104.93</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2004.93</v>
+      </c>
+      <c r="C25">
+        <v>135.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>105.96</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2005.96</v>
+      </c>
+      <c r="C26">
+        <v>136.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>106.99</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2006.99</v>
+      </c>
+      <c r="C27">
+        <v>135.58000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>107.98</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2007.98</v>
+      </c>
+      <c r="C28">
+        <v>136.58000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>108.88</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2008.88</v>
+      </c>
+      <c r="C29">
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>109.95</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2009.95</v>
+      </c>
+      <c r="C30">
+        <v>138.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>110.97</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2010.97</v>
+      </c>
+      <c r="C31">
+        <v>140.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>81.94</v>
+      </c>
+      <c r="B2">
+        <f>A2+1900</f>
+        <v>1981.94</v>
+      </c>
+      <c r="C2">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>83.01</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">A3+1900</f>
+        <v>1983.01</v>
+      </c>
+      <c r="C3">
+        <v>98.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>83.99</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1983.99</v>
+      </c>
+      <c r="C4">
+        <v>100.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>85.02</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1985.02</v>
+      </c>
+      <c r="C5">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>85.96</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1985.96</v>
+      </c>
+      <c r="C6">
+        <v>101.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>86.99</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1986.99</v>
+      </c>
+      <c r="C7">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>87.98</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1987.98</v>
+      </c>
+      <c r="C8">
+        <v>99.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>88.96</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1988.96</v>
+      </c>
+      <c r="C9">
+        <v>103.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>89.99</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1989.99</v>
+      </c>
+      <c r="C10">
+        <v>104.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90.97</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1990.97</v>
+      </c>
+      <c r="C11">
+        <v>100.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="C12">
+        <v>100.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>92.95</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1992.95</v>
+      </c>
+      <c r="C13">
+        <v>101.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>93.93</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1993.93</v>
+      </c>
+      <c r="C14">
+        <v>99.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>95.04</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1995.04</v>
+      </c>
+      <c r="C15">
+        <v>103.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>95.99</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1995.99</v>
+      </c>
+      <c r="C16">
+        <v>104.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>96.93</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1996.93</v>
+      </c>
+      <c r="C17">
+        <v>105.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <v>103.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98.94</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1998.94</v>
+      </c>
+      <c r="C19">
+        <v>102.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>99.93</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1999.93</v>
+      </c>
+      <c r="C20">
+        <v>103.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100.91</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2000.91</v>
+      </c>
+      <c r="C21">
+        <v>103.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>101.94</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2001.94</v>
+      </c>
+      <c r="C22">
+        <v>102.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>102.97</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2002.97</v>
+      </c>
+      <c r="C23">
+        <v>102.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>103.91</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2003.91</v>
+      </c>
+      <c r="C24">
+        <v>102.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>104.98</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2004.98</v>
+      </c>
+      <c r="C25">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>105.97</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2005.97</v>
+      </c>
+      <c r="C26">
+        <v>102.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>106.95</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2006.95</v>
+      </c>
+      <c r="C27">
+        <v>101.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>107.98</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2007.98</v>
+      </c>
+      <c r="C28">
+        <v>102.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>108.97</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2008.97</v>
+      </c>
+      <c r="C29">
+        <v>104.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>109.91</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2009.91</v>
+      </c>
+      <c r="C30">
+        <v>104.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>110.94</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2010.94</v>
+      </c>
+      <c r="C31">
+        <v>106.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/GlobalGPP_Sum.xlsx
+++ b/data/GlobalGPP_Sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jian107/PNNL/GlobalC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040AEC5B-A000-F040-8E8B-F4741552A607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01F899-13EE-BA48-811E-0837238734B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalGPP_Sum" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="_0raw" localSheetId="2">SVR!$A$2:$C$16</definedName>
     <definedName name="_0raw_1" localSheetId="3">FLUXCOM!$E$2:$E$33</definedName>
     <definedName name="_0raw_1" localSheetId="1">MPIBGC!$B$2:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalGPP_Sum!$C$1:$C$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -963,7 +964,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -973,6 +974,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3244,13 +3246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="1" sqref="C8:C78 C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11" style="4"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
@@ -3262,7 +3265,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3291,7 +3294,7 @@
       <c r="B2" s="2">
         <v>1975</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>71.73</v>
       </c>
       <c r="F2" t="s">
@@ -3305,7 +3308,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>120</v>
       </c>
       <c r="F3" t="s">
@@ -3319,7 +3322,7 @@
       <c r="B4" s="2">
         <v>1991</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>133.1</v>
       </c>
       <c r="F4" t="s">
@@ -3336,7 +3339,7 @@
       <c r="B5" s="2">
         <v>1995</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>113</v>
       </c>
       <c r="F5" t="s">
@@ -3350,7 +3353,7 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>114.7</v>
       </c>
       <c r="F6" t="s">
@@ -3361,7 +3364,7 @@
       <c r="A7">
         <v>2000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>183.39</v>
       </c>
       <c r="F7" t="s">
@@ -3378,7 +3381,7 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>121.5</v>
       </c>
       <c r="F8" t="s">
@@ -3389,7 +3392,7 @@
       <c r="A9">
         <v>2000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>153.47999999999999</v>
       </c>
       <c r="F9" t="s">
@@ -3403,7 +3406,7 @@
       <c r="A10">
         <v>2000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>124.7</v>
       </c>
       <c r="F10" t="s">
@@ -3420,7 +3423,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>118</v>
       </c>
       <c r="F11" t="s">
@@ -3437,7 +3440,7 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>124.6</v>
       </c>
       <c r="D12">
@@ -3460,7 +3463,7 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>137.4</v>
       </c>
       <c r="F13" t="s">
@@ -3474,7 +3477,7 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>135.69999999999999</v>
       </c>
       <c r="D14">
@@ -3492,7 +3495,7 @@
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>160.94999999999999</v>
       </c>
       <c r="F15" t="s">
@@ -3509,7 +3512,7 @@
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>122</v>
       </c>
       <c r="F16" t="s">
@@ -3523,7 +3526,7 @@
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>109.29</v>
       </c>
       <c r="D17">
@@ -3541,7 +3544,7 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>112.13</v>
       </c>
       <c r="E18">
@@ -3561,7 +3564,7 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>125</v>
       </c>
       <c r="E19">
@@ -3578,7 +3581,7 @@
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>108.42</v>
       </c>
       <c r="F20" t="s">
@@ -3595,7 +3598,7 @@
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>110.76</v>
       </c>
       <c r="F21" t="s">
@@ -3612,7 +3615,7 @@
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>107.82</v>
       </c>
       <c r="F22" t="s">
@@ -3629,7 +3632,7 @@
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>107.5</v>
       </c>
       <c r="F23" t="s">
@@ -3646,7 +3649,7 @@
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>101.79</v>
       </c>
       <c r="F24" t="s">
@@ -3663,7 +3666,7 @@
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>102.71</v>
       </c>
       <c r="F25" t="s">
@@ -3680,7 +3683,7 @@
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>124.82</v>
       </c>
       <c r="F26" t="s">
@@ -3697,7 +3700,7 @@
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>125.75</v>
       </c>
       <c r="F27" t="s">
@@ -3714,7 +3717,7 @@
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>123.41</v>
       </c>
       <c r="F28" t="s">
@@ -3731,7 +3734,7 @@
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>123.72</v>
       </c>
       <c r="F29" t="s">
@@ -3748,7 +3751,7 @@
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>132.25</v>
       </c>
       <c r="F30" t="s">
@@ -3765,7 +3768,7 @@
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>131.5</v>
       </c>
       <c r="F31" t="s">
@@ -3779,7 +3782,7 @@
       <c r="B32" s="2">
         <v>2001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <f>AVERAGE(65,108,117)</f>
         <v>96.666666666666671</v>
       </c>
@@ -3797,7 +3800,7 @@
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>124</v>
       </c>
       <c r="F33" t="s">
@@ -3811,7 +3814,7 @@
       <c r="B34" s="2">
         <v>2000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>118</v>
       </c>
       <c r="F34" t="s">
@@ -3825,7 +3828,7 @@
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>108</v>
       </c>
       <c r="F35" t="s">
@@ -3839,7 +3842,7 @@
       <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>110.33</v>
       </c>
       <c r="F36" t="s">
@@ -3853,7 +3856,7 @@
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>107.4</v>
       </c>
       <c r="F37" t="s">
@@ -3867,7 +3870,7 @@
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>107.09</v>
       </c>
       <c r="F38" t="s">
@@ -3881,7 +3884,7 @@
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>126.4</v>
       </c>
       <c r="F39" t="s">
@@ -3895,7 +3898,7 @@
       <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>139.69999999999999</v>
       </c>
       <c r="E40">
@@ -3912,7 +3915,7 @@
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>131</v>
       </c>
       <c r="F41" t="s">
@@ -3926,7 +3929,7 @@
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>129</v>
       </c>
       <c r="F42" t="s">
@@ -3943,7 +3946,7 @@
       <c r="B43" s="2">
         <v>2001</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>120</v>
       </c>
       <c r="F43" t="s">
@@ -3957,7 +3960,7 @@
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>107</v>
       </c>
       <c r="F44" t="s">
@@ -3971,7 +3974,7 @@
       <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>118</v>
       </c>
       <c r="D45">
@@ -3988,7 +3991,7 @@
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>117</v>
       </c>
       <c r="F46" t="s">
@@ -4002,7 +4005,7 @@
       <c r="B47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>123</v>
       </c>
       <c r="F47" t="s">
@@ -4016,7 +4019,7 @@
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>119</v>
       </c>
       <c r="D48">
@@ -4033,7 +4036,7 @@
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>110.5</v>
       </c>
       <c r="D49">
@@ -4050,7 +4053,7 @@
       <c r="B50" s="2">
         <v>2000</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>134</v>
       </c>
       <c r="F50" t="s">
@@ -4067,7 +4070,7 @@
       <c r="B51" s="2">
         <v>2000</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>141</v>
       </c>
       <c r="F51" t="s">
@@ -4084,7 +4087,7 @@
       <c r="B52" s="2">
         <v>2010</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>147.5</v>
       </c>
       <c r="F52" t="s">
@@ -4101,7 +4104,7 @@
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>119</v>
       </c>
       <c r="E53">
@@ -4121,7 +4124,7 @@
       <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>112</v>
       </c>
       <c r="E54">
@@ -4141,7 +4144,7 @@
       <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>148</v>
       </c>
       <c r="E55">
@@ -4161,7 +4164,7 @@
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>147</v>
       </c>
       <c r="E56">
@@ -4181,7 +4184,7 @@
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>130</v>
       </c>
       <c r="E57">
@@ -4201,7 +4204,7 @@
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>131</v>
       </c>
       <c r="E58">
@@ -4221,7 +4224,7 @@
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>149</v>
       </c>
       <c r="E59">
@@ -4241,7 +4244,7 @@
       <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>140</v>
       </c>
       <c r="E60">
@@ -4261,7 +4264,7 @@
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>153</v>
       </c>
       <c r="E61">
@@ -4281,7 +4284,7 @@
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>169</v>
       </c>
       <c r="E62">
@@ -4301,7 +4304,7 @@
       <c r="B63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>117</v>
       </c>
       <c r="D63">
@@ -4324,7 +4327,7 @@
       <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>112</v>
       </c>
       <c r="E64">
@@ -4344,7 +4347,7 @@
       <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>120</v>
       </c>
       <c r="F65" t="s">
@@ -4361,7 +4364,7 @@
       <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>162.5</v>
       </c>
       <c r="F66" t="s">
@@ -4378,7 +4381,7 @@
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>147</v>
       </c>
       <c r="D67" s="1">
@@ -4398,7 +4401,7 @@
         <v>2007</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>140</v>
       </c>
       <c r="D68" s="1"/>
@@ -4418,7 +4421,7 @@
       <c r="B69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>119</v>
       </c>
       <c r="D69" s="1">
@@ -4445,7 +4448,7 @@
       <c r="B70" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5">
         <v>144</v>
       </c>
       <c r="D70" s="1"/>
@@ -4470,7 +4473,7 @@
       <c r="B71" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5">
         <v>109</v>
       </c>
       <c r="D71" s="1"/>
@@ -4495,7 +4498,7 @@
       <c r="B72" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>120</v>
       </c>
       <c r="D72" s="1"/>
@@ -4519,7 +4522,7 @@
       <c r="B73" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>123.79</v>
       </c>
       <c r="D73" s="1"/>
@@ -4543,7 +4546,7 @@
       <c r="B74" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>100.21</v>
       </c>
       <c r="D74" s="1"/>
@@ -4567,7 +4570,7 @@
       <c r="B75" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>133.87</v>
       </c>
       <c r="D75" s="1"/>
@@ -4592,7 +4595,7 @@
       <c r="B76" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <f>AVERAGE(121.6,122.46,122.76,122.93,124.74,123.41,126.02,124.7,123.82,125.38,125.9,126.79,125.66,126.81,128.35,129.42,127.7)</f>
         <v>125.2029411764706</v>
       </c>
@@ -4614,7 +4617,7 @@
       <c r="B77" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="5">
         <v>102</v>
       </c>
       <c r="D77" s="1"/>
@@ -4638,7 +4641,7 @@
       <c r="B78" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5">
         <v>122</v>
       </c>
       <c r="D78" s="1">
@@ -4655,6 +4658,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C78" xr:uid="{E8C8C1E4-BD0F-E94B-8950-83AF82652C87}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
